--- a/TOEFL/Listening.xlsx
+++ b/TOEFL/Listening.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Program Files\GitHub\Writing\TOEFL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAFF805-9AFB-4B9F-81CE-4D363D979701}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30AEC62-C359-4323-A787-6D45ED571B68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,7 +83,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -108,6 +108,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -135,16 +141,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -431,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -447,7 +454,7 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="H2" s="6"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E3" s="2"/>
@@ -462,7 +469,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="H5" s="6"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
@@ -472,6 +479,7 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="E7" s="3"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F8" s="2"/>
@@ -498,86 +506,99 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C25" s="4"/>
       <c r="D25" s="2"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H27" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30" s="2"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C32" s="2"/>
       <c r="E32" s="2"/>
+      <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="F33" s="2"/>
+      <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="E34" s="2"/>
+      <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
@@ -590,14 +611,14 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
@@ -633,7 +654,7 @@
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-      <c r="H45" s="6"/>
+      <c r="H45" s="5"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C46" s="4"/>
@@ -655,7 +676,7 @@
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="F49" s="2"/>
-      <c r="H49" s="6"/>
+      <c r="H49" s="5"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>

--- a/TOEFL/Listening.xlsx
+++ b/TOEFL/Listening.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Program Files\GitHub\Writing\TOEFL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30AEC62-C359-4323-A787-6D45ED571B68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B22F01-4D98-413C-87FE-6CB126802F12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,8 +82,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,6 +123,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -141,7 +154,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
@@ -152,6 +165,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -438,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -546,6 +560,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
+      <c r="H25" s="8"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C27" s="2"/>
